--- a/sales_annexure_champion/static/src/customer_invoices.xlsx
+++ b/sales_annexure_champion/static/src/customer_invoices.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Sr</t>
   </si>
@@ -83,126 +83,6 @@
   </si>
   <si>
     <t>Total Value of Sales.</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0393433-7</t>
-  </si>
-  <si>
-    <t>Chaudhry Paint House</t>
-  </si>
-  <si>
-    <t>Registered</t>
-  </si>
-  <si>
-    <t>Punjab</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>INV/2017/0005</t>
-  </si>
-  <si>
-    <t>20/07/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>32-a-Paints, Varnishes, Lacquers, Enamels, And Allied</t>
-  </si>
-  <si>
-    <t>19619.6</t>
-  </si>
-  <si>
-    <t>3335.34</t>
-  </si>
-  <si>
-    <t>392.4</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>0237988-7</t>
-  </si>
-  <si>
-    <t>Allied Distributors</t>
-  </si>
-  <si>
-    <t>INV/2017/0001</t>
-  </si>
-  <si>
-    <t>12/07/2017</t>
-  </si>
-  <si>
-    <t>4800.0</t>
-  </si>
-  <si>
-    <t>816.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1306474-6</t>
-  </si>
-  <si>
-    <t>Iqbal Paint House</t>
-  </si>
-  <si>
-    <t>INV/2017/0002</t>
-  </si>
-  <si>
-    <t>04/07/2017</t>
-  </si>
-  <si>
-    <t>20391.51</t>
-  </si>
-  <si>
-    <t>3466.55</t>
-  </si>
-  <si>
-    <t>407.83</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>0958614-8</t>
-  </si>
-  <si>
-    <t>Habib Paint House</t>
-  </si>
-  <si>
-    <t>Unregistered</t>
-  </si>
-  <si>
-    <t>INV/2017/0003</t>
-  </si>
-  <si>
-    <t>03/07/2017</t>
-  </si>
-  <si>
-    <t>18924.53</t>
-  </si>
-  <si>
-    <t>3217.17</t>
-  </si>
-  <si>
-    <t>378.49</t>
   </si>
 </sst>
 </file>
@@ -246,12 +126,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -548,7 +425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W5"/>
+  <dimension ref="A1:W1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -641,194 +518,6 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
